--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 10:01 AM</t>
+    <t>Sunday, 10 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,7 +62,37 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 10:04 AM</t>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 10 August, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +754,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>22</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>24</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>69.049999999999997</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +865,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -44,22 +44,61 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -74,7 +113,28 @@
     <t>7.0500</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>59:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>فازلين بيور كبير</t>
@@ -83,16 +143,22 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 10:29 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 10 August, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +871,251 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>26</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>36</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>69.049999999999997</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>36</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>36</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +1139,40 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -77,6 +86,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -113,6 +131,21 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8420:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -158,7 +191,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 10:43 AM</t>
+    <t>Sunday, 10 August, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -832,7 +865,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -842,14 +875,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -858,14 +891,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -875,14 +908,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -891,14 +924,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -908,14 +941,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,14 +957,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -941,14 +974,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,31 +990,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,31 +1023,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,31 +1056,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1089,165 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>132.05000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>47</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>47</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>187.55000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1301,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
@@ -131,6 +140,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -176,12 +194,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -191,7 +203,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 10:46 AM</t>
+    <t>Sunday, 10 August, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,7 +877,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -898,7 +910,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +920,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -964,7 +976,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,11 +986,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -990,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1040,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1073,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,28 +1101,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1122,31 +1134,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,28 +1167,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1188,7 +1200,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1201,53 +1213,119 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>187.55000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>53</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>18</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>16</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>53</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>263.55000000000001</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1394,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -203,7 +203,16 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:01 AM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 10 August, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,38 +1303,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>263.55000000000001</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>16</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>53</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>298.55000000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:02 AM</t>
+    <t>Sunday, 10 August, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -143,12 +155,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -161,9 +167,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -194,6 +197,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -203,16 +212,19 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 10 August, 2025 11:05 AM</t>
+    <t>Sunday, 10 August, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1068,7 +1080,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1117,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,14 +1139,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1172,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,31 +1188,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,28 +1221,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1242,28 +1254,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1275,28 +1287,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1308,66 +1320,165 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>298.55000000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>54</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>32</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>54</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>54</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>68</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>409.55000000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>71</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>72</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>73</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1562,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -47,33 +47,51 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
-  </si>
-  <si>
     <t>13.50</t>
   </si>
   <si>
@@ -92,9 +110,6 @@
     <t>13.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
   </si>
   <si>
@@ -182,6 +197,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -224,7 +242,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:08 AM</t>
+    <t>Sunday, 10 August, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,7 +916,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -908,14 +926,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -924,14 +942,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -941,14 +959,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>22</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,14 +975,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -974,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,14 +1008,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,14 +1025,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1023,14 +1041,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1058,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1074,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1073,14 +1091,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1089,14 +1107,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1124,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1157,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1173,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,14 +1190,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1205,14 +1223,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,20 +1239,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1245,7 +1263,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1261,24 +1279,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,31 +1305,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,31 +1338,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,31 +1371,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1386,31 +1404,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1426,59 +1444,125 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>409.55000000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>71</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>72</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>73</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>37</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>59</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>74</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>26</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>59</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>74</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>440.43000000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>77</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>78</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>79</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1577,10 +1661,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -242,7 +251,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:28 AM</t>
+    <t>Sunday, 10 August, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,7 +925,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -926,11 +935,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -942,14 +951,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,14 +968,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -975,14 +984,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -992,14 +1001,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1008,14 +1017,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1025,14 +1034,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1041,14 +1050,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1065,7 +1074,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1081,7 +1090,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1091,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,14 +1116,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1124,14 +1133,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1140,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,14 +1166,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1173,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1190,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1206,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1223,14 +1232,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1239,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,31 +1281,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,31 +1347,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1378,24 +1387,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,31 +1413,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1437,31 +1446,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1477,13 +1486,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1494,7 +1503,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1510,59 +1519,92 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>440.43000000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>79</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>29</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>62</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>77</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>78</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>79</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>501.43000000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>80</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>81</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>82</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1671,10 +1713,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
   </si>
   <si>
@@ -251,7 +260,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:29 AM</t>
+    <t>Sunday, 10 August, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,7 +1099,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1109,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1123,7 +1132,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,11 +1142,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1149,14 +1158,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,11 +1175,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1182,14 +1191,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,14 +1208,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,14 +1224,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,11 +1241,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1248,14 +1257,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,14 +1274,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1298,14 +1307,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,31 +1323,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1347,31 +1356,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,7 +1389,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1393,18 +1402,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1420,21 +1429,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1446,20 +1455,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1479,28 +1488,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1519,13 +1528,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1552,59 +1561,92 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>501.43000000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>29</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>65</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>80</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>81</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>82</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>517.26999999999998</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>83</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>84</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>85</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1718,10 +1760,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:5</t>
+    <t>0:4</t>
   </si>
   <si>
     <t>1</t>
@@ -56,15 +56,18 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -110,13 +113,13 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>13.0000</t>
+    <t>26.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -152,9 +155,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -173,6 +173,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -203,7 +215,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>59:0</t>
+    <t>58:0</t>
   </si>
   <si>
     <t>0</t>
@@ -212,9 +224,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -224,7 +233,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>فازلين بيور كبير</t>
@@ -245,7 +254,19 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -260,7 +281,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:35 AM</t>
+    <t>Sunday, 10 August, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +955,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -944,14 +965,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -960,14 +981,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -977,14 +998,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -993,14 +1014,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1010,14 +1031,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1026,14 +1047,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1043,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1059,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1076,11 +1097,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1092,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1113,10 +1134,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1125,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1142,14 +1163,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1158,14 +1179,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1175,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1191,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1215,7 +1236,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,7 +1269,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,7 +1302,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1297,7 +1318,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1328,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1340,14 +1361,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1369,18 +1390,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,31 +1443,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1462,24 +1483,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,31 +1509,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1521,31 +1542,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1561,13 +1582,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1578,7 +1599,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1594,59 +1615,125 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>517.26999999999998</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>83</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>84</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>85</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>44</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>69</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>30</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>69</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>87</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>615.95000000000005</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>90</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>91</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>92</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1765,10 +1852,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
   </si>
   <si>
@@ -173,6 +185,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>-41.5800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
   </si>
   <si>
@@ -281,7 +308,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:43 AM</t>
+    <t>Sunday, 10 August, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,7 +1180,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1163,14 +1190,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1219,7 +1246,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1229,11 +1256,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1245,14 +1272,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1269,7 +1296,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1335,7 +1362,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1388,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,31 +1437,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,28 +1470,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -1476,28 +1503,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -1509,31 +1536,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,31 +1569,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1602,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,28 +1635,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1641,31 +1668,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1674,66 +1701,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>615.95000000000005</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>90</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>91</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>92</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>48</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>78</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>30</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>78</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>96</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>588.37</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1862,10 +1955,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:46 AM</t>
+    <t>Sunday, 10 August, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -239,15 +239,27 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>58:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -308,7 +320,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:47 AM</t>
+    <t>Sunday, 10 August, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1524,10 +1536,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,11 +1565,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1569,7 +1581,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1586,11 +1598,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>34</v>
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1619,14 +1631,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,14 +1647,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1725,7 +1737,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1741,7 +1753,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1751,11 +1763,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1784,49 +1796,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>588.37</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>99</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>30</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>78</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>613.37</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>103</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>105</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2010,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -86,18 +86,42 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
@@ -113,60 +137,66 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -224,6 +254,18 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -266,6 +308,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -278,9 +323,6 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -320,7 +362,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:54 AM</t>
+    <t>Sunday, 10 August, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1077,7 +1119,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1086,14 +1128,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1110,7 +1152,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1143,7 +1185,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1169,14 +1211,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1185,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1218,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,14 +1277,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1251,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,14 +1310,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,14 +1343,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1317,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1334,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1350,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1442,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1416,14 +1458,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1449,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1482,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1515,31 +1557,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,31 +1590,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,31 +1623,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,31 +1656,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,31 +1689,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1680,31 +1722,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1713,31 +1755,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,31 +1788,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1779,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1812,66 +1854,165 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>613.37</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>103</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>104</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>105</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>110</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>92</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>111</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>57</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>92</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>114</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>38</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>92</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>757.37</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>117</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>118</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>119</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2156,25 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -266,6 +266,9 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 11:58 AM</t>
+    <t>Sunday, 10 August, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1607,11 +1610,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -1630,7 +1633,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,31 +1659,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,31 +1692,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,31 +1725,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,7 +1758,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1768,18 +1771,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,13 +1831,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1854,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,31 +1890,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,28 +1923,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -1953,66 +1956,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>757.37</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>117</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>38</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>93</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>795.37</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>118</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
         <v>119</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2171,10 +2207,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:02 PM</t>
+    <t>Sunday, 10 August, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
@@ -1138,7 +1150,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1148,11 +1160,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>29</v>
@@ -1164,14 +1176,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1254,7 +1266,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1263,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,7 +1325,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1336,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1452,7 +1464,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1485,7 +1497,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,7 +1596,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,11 +1622,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -1626,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1688,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1705,18 +1717,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,20 +1737,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1746,10 +1758,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,31 +1770,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,28 +1803,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>61</v>
@@ -1824,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,28 +1869,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -1890,31 +1902,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,20 +1935,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1947,7 +1959,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1963,21 +1975,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -1989,66 +2001,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>795.37</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>42</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>97</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>119</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>826.37</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>122</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>123</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>124</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2257,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -191,6 +191,21 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -353,31 +368,31 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:07 PM</t>
+    <t>Sunday, 10 August, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1431,7 +1446,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,11 +1472,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1563,7 +1578,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,11 +1604,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1637,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -1671,7 +1686,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1688,11 +1703,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,20 +1752,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1761,7 +1776,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1783,18 +1798,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,31 +1818,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,7 +1851,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1849,18 +1864,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,31 +1884,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,20 +1917,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1935,31 +1950,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,31 +1983,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,28 +2016,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2034,66 +2049,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>826.37</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>122</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>123</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>124</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>66</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>102</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>120</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>42</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>102</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>120</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>881.28999999999996</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>127</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>128</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>129</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2262,10 +2343,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:11 PM</t>
+    <t>Sunday, 10 August, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -206,18 +206,36 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
     <t>22.0000</t>
   </si>
   <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -269,6 +287,12 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -302,13 +326,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8420:0</t>
+    <t>8418:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -347,7 +371,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>فازلين بيور كبير</t>
@@ -392,7 +416,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:17 PM</t>
+    <t>Sunday, 10 August, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1519,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1505,11 +1529,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1521,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1578,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1595,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,11 +1628,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1620,14 +1644,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,14 +1661,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1653,14 +1677,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1694,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,11 +1727,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1719,14 +1743,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,14 +1793,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,28 +1809,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -1818,31 +1842,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1851,31 +1875,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,20 +1908,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1908,7 +1932,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1924,24 +1948,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,31 +1974,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,7 +2007,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1996,18 +2020,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,28 +2040,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2062,15 +2086,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2082,31 +2106,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,66 +2139,165 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>881.28999999999996</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>127</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>131</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>110</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>62</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>66</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>110</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>128</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>42</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>110</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1029.79</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>135</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2353,10 +2476,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:23 PM</t>
+    <t>Sunday, 10 August, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -137,9 +149,6 @@
     <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>13.50</t>
   </si>
   <si>
@@ -164,10 +173,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -293,6 +302,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -323,6 +341,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -416,7 +443,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:28 PM</t>
+    <t>Sunday, 10 August, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1249,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1232,11 +1259,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>29</v>
@@ -1248,14 +1275,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1321,7 +1348,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1437,7 +1464,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1453,7 +1480,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1552,7 +1579,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1585,7 +1612,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1595,11 +1622,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1731,10 +1758,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1764,10 +1791,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,14 +1853,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,28 +1935,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -1941,31 +1968,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1974,31 +2001,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,31 +2034,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2040,31 +2067,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,31 +2100,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,28 +2166,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2172,28 +2199,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2212,24 +2239,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,66 +2265,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1029.79</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>135</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>136</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>140</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>119</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>65</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>142</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>69</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>119</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>137</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>143</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>35</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>119</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1183.6300000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2491,10 +2617,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -443,7 +452,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:50 PM</t>
+    <t>Sunday, 10 August, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,7 +1819,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1827,7 +1836,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,11 +1862,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,11 +1928,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1935,7 +1944,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1952,11 +1961,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2008,7 +2017,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,31 +2043,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2076,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2107,24 +2116,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2133,7 +2142,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2146,18 +2155,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2173,24 +2182,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,20 +2208,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2232,31 +2241,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2272,13 +2281,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2289,7 +2298,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2305,17 +2314,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2338,21 +2347,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2364,66 +2373,99 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1183.6300000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>144</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>145</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>146</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>35</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>122</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>140</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1259.6300000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>147</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>148</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>149</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2632,10 +2674,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -182,13 +182,13 @@
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>28.0000</t>
   </si>
   <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
@@ -248,9 +248,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -452,7 +449,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:51 PM</t>
+    <t>Sunday, 10 August, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1473,7 +1470,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1654,7 +1651,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1664,11 +1661,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1680,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1697,11 +1694,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1713,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>90</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1746,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,11 +1760,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1779,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,7 +1793,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1812,7 +1809,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1829,11 +1826,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -1845,7 +1842,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1862,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1878,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1895,11 +1892,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1911,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1944,7 +1941,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1977,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1994,11 +1991,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2010,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,11 +2024,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2043,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2060,14 +2057,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2076,28 +2073,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2109,31 +2106,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,7 +2139,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2155,15 +2152,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>69</v>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2188,18 +2185,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,20 +2205,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2241,20 +2238,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2274,7 +2271,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2287,18 +2284,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,28 +2304,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2340,20 +2337,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2361,7 +2358,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2373,7 +2370,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2386,15 +2383,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2406,7 +2403,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2419,15 +2416,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2435,13 +2432,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>1259.6300000000001</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2449,13 +2446,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:53 PM</t>
+    <t>Sunday, 10 August, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>43.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -215,12 +227,12 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -449,7 +461,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 12:57 PM</t>
+    <t>Sunday, 10 August, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1140,7 +1152,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1149,14 +1161,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1166,14 +1178,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1182,14 +1194,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1199,14 +1211,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1239,7 +1251,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1272,7 +1284,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1288,7 +1300,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1310,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1338,7 +1350,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1354,7 +1366,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1376,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,14 +1392,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1404,7 +1416,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1425,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,14 +1442,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1486,7 +1498,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1508,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1524,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1536,7 +1548,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1585,7 +1597,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1607,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1640,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +1970,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2047,7 +2059,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,31 +2085,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,31 +2118,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,31 +2151,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,20 +2184,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2193,10 +2205,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,31 +2217,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2245,24 +2257,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2283,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,31 +2316,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,31 +2349,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,31 +2382,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2410,59 +2422,125 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1273.6300000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>146</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>147</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>148</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>18</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>125</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>143</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>39</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>125</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>143</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1360.6300000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>150</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>151</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>152</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2676,10 +2754,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -404,6 +404,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t xml:space="preserve">ريد  مبيد الحشرات الزاحفه</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -419,6 +428,18 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -455,13 +476,16 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 1:15 PM</t>
+    <t>Sunday, 10 August, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2248,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,7 +2274,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,11 +2357,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2399,11 +2423,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,11 +2489,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,49 +2522,148 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1360.6300000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>125</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>150</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>152</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>125</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>150</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>39</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>125</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>150</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1570.6300000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>158</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>159</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>160</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2764,10 +2887,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 1:43 PM</t>
+    <t>Sunday, 10 August, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 2:16 PM</t>
+    <t>Sunday, 10 August, 2025 2:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1951,7 +1960,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1968,7 +1977,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,11 +2069,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2093,11 +2102,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2149,7 +2158,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,31 +2184,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,31 +2217,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2248,24 +2257,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2281,24 +2290,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,7 +2316,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2320,18 +2329,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2347,24 +2356,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,28 +2382,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2406,20 +2415,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2439,31 +2448,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2479,13 +2488,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2496,7 +2505,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2512,17 +2521,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2545,21 +2554,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2571,7 +2580,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2584,15 +2593,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2604,66 +2613,99 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1570.6300000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>158</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>159</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>160</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>39</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>128</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>153</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1596.6300000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>161</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2902,10 +2944,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>13.5000</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
   </si>
   <si>
@@ -230,6 +251,15 @@
     <t>FUCIDIN 2% CREAM 20 GM</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -395,9 +425,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -494,7 +521,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 2:21 PM</t>
+    <t>Sunday, 10 August, 2025 2:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,13 +1492,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1482,7 +1509,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,14 +1518,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,14 +1568,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1564,7 +1591,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1601,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1590,14 +1617,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1614,7 +1641,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1667,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1656,14 +1683,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,11 +1766,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1755,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,11 +1799,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1788,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1812,7 +1839,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1828,7 +1855,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1944,7 +1971,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2030,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2019,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2043,7 +2070,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,11 +2096,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2085,7 +2112,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,28 +2244,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2250,31 +2277,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,31 +2310,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,31 +2343,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,31 +2376,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,20 +2409,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2422,24 +2449,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,31 +2475,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,28 +2541,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2547,28 +2574,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2587,24 +2614,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,28 +2640,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2646,66 +2673,165 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>1596.6300000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>161</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>167</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>53</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>162</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>53</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>39</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>53</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>162</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>1719.3900000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>171</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2949,10 +3075,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 2:30 PM</t>
+    <t>Sunday, 10 August, 2025 2:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 2:53 PM</t>
+    <t>Sunday, 10 August, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2515,7 +2524,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2534,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2664,7 +2673,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,7 +2699,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2713,7 +2722,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2739,7 +2748,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2756,11 +2765,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,49 +2798,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>1719.3900000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>170</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>171</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>39</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>53</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>165</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>1723.3900000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>174</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>175</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3090,10 +3132,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 2:54 PM</t>
+    <t>Sunday, 10 August, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -236,16 +236,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
+    <t>0:6</t>
   </si>
   <si>
     <t>FUCIDIN 2% CREAM 20 GM</t>
@@ -383,9 +380,6 @@
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -530,7 +524,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 4:26 PM</t>
+    <t>Sunday, 10 August, 2025 4:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1713,10 +1707,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1725,7 +1719,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1758,7 +1752,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1775,11 +1769,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1791,7 +1785,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1808,11 +1802,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1824,7 +1818,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1841,11 +1835,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1857,7 +1851,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1874,11 +1868,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1890,7 +1884,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1907,11 +1901,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1923,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,11 +1934,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -1956,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,11 +2000,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2022,7 +2016,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2039,7 +2033,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2055,7 +2049,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2072,11 +2066,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2088,7 +2082,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2105,11 +2099,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2121,7 +2115,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2138,11 +2132,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2154,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,11 +2165,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2187,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,11 +2198,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2220,7 +2214,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2253,7 +2247,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2270,11 +2264,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2286,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,11 +2297,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2319,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,11 +2363,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2385,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,7 +2396,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2418,7 +2412,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2435,11 +2429,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2451,7 +2445,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2468,11 +2462,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2484,7 +2478,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2501,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,7 +2511,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2534,11 +2528,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2550,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,11 +2561,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2583,14 +2577,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2616,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2649,7 +2643,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2666,11 +2660,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>65</v>
@@ -2682,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2699,11 +2693,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2715,14 +2709,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2736,7 +2730,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2748,7 +2742,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2765,11 +2759,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2781,7 +2775,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2798,11 +2792,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2814,7 +2808,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2831,11 +2825,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2843,13 +2837,13 @@
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="P58" s="13">
-        <v>1723.3900000000001</v>
+        <v>1727.23</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c t="s" r="A59" s="14">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2857,13 +2851,13 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c t="s" r="G59" s="15">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
       <c t="s" r="K59" s="17">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FUCIDIN 2% CREAM 20 GM</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -524,7 +542,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 4:41 PM</t>
+    <t>Sunday, 10 August, 2025 4:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1744,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,7 +1770,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1769,11 +1787,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1792,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1858,7 +1876,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1891,7 +1909,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1924,7 +1942,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2037,10 +2055,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,11 +2084,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2122,7 +2140,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2139,7 +2157,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2155,7 +2173,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2205,7 +2223,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,31 +2364,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,31 +2397,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2452,7 +2470,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,7 +2529,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2528,14 +2546,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,11 +2612,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2716,7 +2734,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2749,7 +2767,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,49 +2843,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>1727.23</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>171</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>172</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>173</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>53</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>169</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>39</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>53</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>169</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>1821.26</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>177</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>178</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>179</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3131,10 +3215,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -209,12 +218,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -360,9 +363,6 @@
   </si>
   <si>
     <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
   </si>
   <si>
     <t>PANTOPI 40MG 14 TAB</t>
@@ -1414,7 +1414,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1447,7 +1447,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1473,14 +1473,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1513,24 +1513,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,31 +1539,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1622,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1638,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1688,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1704,14 +1704,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1820,11 +1820,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1836,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,11 +1853,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1902,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1935,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,11 +1952,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1968,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2183,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,11 +2216,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2232,14 +2232,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2265,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,11 +2315,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2364,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2414,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,31 +2430,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2463,31 +2463,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2496,31 +2496,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,31 +2529,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2575,18 +2575,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2608,18 +2608,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,28 +2628,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2661,28 +2661,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2694,28 +2694,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2727,31 +2727,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,31 +2760,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,28 +2793,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2826,28 +2826,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2872,7 +2872,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2892,20 +2892,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2920,38 +2920,71 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>1821.26</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>176</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>39</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>56</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>169</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>1875.26</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>177</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>178</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
         <v>179</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3225,10 +3258,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 4:43 PM</t>
+    <t>Sunday, 10 August, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -419,6 +419,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -464,7 +476,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -503,9 +515,6 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -542,7 +551,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 5:16 PM</t>
+    <t>Sunday, 10 August, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2454,7 +2463,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2487,7 +2496,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,10 +2526,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,7 +2604,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2701,7 +2710,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2817,7 +2826,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2843,7 +2852,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2866,7 +2875,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2892,7 +2901,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2909,11 +2918,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2942,49 +2951,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>1875.26</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>177</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>178</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>39</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>56</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>172</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>1894.0899999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>180</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>181</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>182</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3263,10 +3305,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 5:20 PM</t>
+    <t>Sunday, 10 August, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -386,6 +386,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -551,7 +557,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 5:23 PM</t>
+    <t>Sunday, 10 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2287,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,11 +2297,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2307,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2330,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2346,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,11 +2363,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2373,7 +2379,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,11 +2462,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2472,14 +2478,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2495,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,31 +2511,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2561,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2592,10 +2598,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,7 +2676,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2687,14 +2693,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,11 +2726,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2753,11 +2759,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,11 +2891,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2934,7 +2940,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2951,11 +2957,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,49 +2990,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>1894.0899999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>180</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>181</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>39</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>56</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>174</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>1940.6199999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>182</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>183</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>184</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3310,10 +3349,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -248,6 +260,18 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>FLORAX 24 PIECES</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -287,6 +311,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -335,9 +368,6 @@
     <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -350,6 +380,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
   </si>
   <si>
@@ -365,6 +404,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -557,7 +605,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 5:24 PM</t>
+    <t>Sunday, 10 August, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1281,7 +1329,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1290,14 +1338,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1314,7 +1362,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1347,7 +1395,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1380,7 +1428,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1413,7 +1461,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1429,7 +1477,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1439,14 +1487,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1455,14 +1503,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1472,14 +1520,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1488,14 +1536,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1512,7 +1560,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1528,7 +1576,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,14 +1586,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1554,20 +1602,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1578,7 +1626,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1594,13 +1642,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1611,7 +1659,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1620,14 +1668,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1637,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1653,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,11 +1718,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1686,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,14 +1751,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1719,14 +1767,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1736,14 +1784,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1752,14 +1800,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1773,10 +1821,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,7 +1840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1818,14 +1866,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,14 +1883,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1851,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1875,7 +1923,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,14 +1949,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1917,14 +1965,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1934,14 +1982,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,14 +1998,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +2015,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2031,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2048,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2064,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,14 +2081,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2049,14 +2097,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,14 +2114,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2082,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2115,14 +2163,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2148,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2221,7 +2269,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2238,7 +2286,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2328,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2313,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,14 +2378,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2346,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2411,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,31 +2427,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2419,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2462,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2478,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2535,7 +2583,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2551,24 +2599,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,31 +2625,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2610,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2643,31 +2691,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2676,31 +2724,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,31 +2757,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,31 +2790,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2775,31 +2823,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2815,24 +2863,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>68</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,31 +2922,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2907,31 +2955,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2940,31 +2988,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2973,31 +3021,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3006,66 +3054,264 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>1940.6199999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>182</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>183</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>184</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>43</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>60</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>187</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>173</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>60</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>190</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>60</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>81</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>23</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>60</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>190</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>23</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>60</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>190</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>43</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>60</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>190</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2220.6199999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>198</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>199</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>200</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3354,10 +3600,40 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:21 PM</t>
+    <t>Sunday, 10 August, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -260,6 +272,15 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FLORAX 24 PIECES</t>
   </si>
   <si>
@@ -353,9 +374,6 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -401,9 +419,6 @@
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -605,7 +620,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:36 PM</t>
+    <t>Sunday, 10 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1854,10 +1869,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1873,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,11 +1964,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,11 +2195,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2220,7 +2235,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2236,7 +2251,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2401,7 +2416,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,31 +2442,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,7 +2475,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,31 +2508,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2599,7 +2614,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,11 +2690,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,31 +2805,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,31 +2838,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2888,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2929,7 +2944,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2946,7 +2961,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3061,7 +3076,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3086,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3218,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,11 +3251,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,49 +3284,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2220.6199999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>199</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>200</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>23</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>60</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>195</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>43</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>60</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>195</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2276.8200000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3711,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -101,6 +116,18 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -191,9 +218,6 @@
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -203,9 +227,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -332,6 +353,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
   </si>
   <si>
@@ -437,6 +467,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -494,9 +530,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -527,12 +560,15 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>58:0</t>
+    <t>57:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ريد  مبيد الحشرات الزاحفه</t>
   </si>
   <si>
@@ -554,9 +590,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -590,7 +623,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>45.0000</t>
   </si>
   <si>
     <t>كريم فيرند لافلي الكبير</t>
@@ -605,10 +638,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -620,7 +650,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:46 PM</t>
+    <t>Sunday, 10 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,18 +1330,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1360,7 +1390,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1370,14 +1400,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,14 +1416,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1403,11 +1433,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1419,14 +1449,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,14 +1466,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1499,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,14 +1565,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,14 +1598,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1631,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1664,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,31 +1680,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1730,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1723,24 +1753,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1799,11 +1829,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,11 +1862,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1895,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,14 +1911,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1902,10 +1932,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1921,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1954,7 +1984,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,11 +2060,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2159,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2307,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2301,7 +2331,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2317,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2334,7 +2364,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2397,10 +2427,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,31 +2538,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2614,24 +2644,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,11 +2687,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2673,14 +2703,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2713,7 +2743,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,7 +2802,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2789,11 +2819,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2878,24 +2908,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2934,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,31 +2967,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +3000,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,20 +3033,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3027,7 +3057,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3043,24 +3073,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,20 +3099,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3093,7 +3123,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3109,24 +3139,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,31 +3231,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,31 +3297,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,31 +3330,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3333,66 +3363,198 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2276.8200000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>203</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>204</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>205</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>209</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>19</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>92</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>28</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>206</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>28</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>206</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>52</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>19</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>206</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>2391.98</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>213</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>214</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>215</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +3883,30 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:48 PM</t>
+    <t>Sunday, 10 August, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -491,6 +491,12 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -650,7 +656,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:53 PM</t>
+    <t>Sunday, 10 August, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2809,7 +2815,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2901,7 +2907,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,31 +3039,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>95</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,10 +3225,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3248,11 +3254,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3281,11 +3287,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,14 +3353,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3436,7 +3442,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3462,7 +3468,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3479,11 +3485,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3512,49 +3518,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>2391.98</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>213</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>214</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>52</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>19</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>208</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>2433.5599999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
         <v>215</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>216</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>217</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3903,10 +3942,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 6:54 PM</t>
+    <t>Sunday, 10 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -248,10 +248,22 @@
     <t>4.2000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>10:1</t>
   </si>
   <si>
     <t>31.6800</t>
@@ -260,9 +272,6 @@
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -392,7 +410,7 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>60.00</t>
@@ -404,9 +422,6 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
     <t>-41.5800</t>
   </si>
   <si>
@@ -446,13 +461,22 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>81.0000</t>
@@ -494,9 +518,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -638,9 +659,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -656,7 +674,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:07 PM</t>
+    <t>Sunday, 10 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,11 +1952,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1957,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1990,7 +2008,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2056,7 +2074,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2099,11 +2117,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2155,7 +2173,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2181,7 +2199,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2221,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2287,7 +2305,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2304,7 +2322,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2337,7 +2355,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2386,7 +2404,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2403,7 +2421,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2419,7 +2437,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,7 +2579,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2584,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2598,7 +2616,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,31 +2661,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2755,18 +2773,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,7 +2810,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2815,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,7 +2843,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2848,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2914,7 +2932,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2947,7 +2965,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3046,7 +3064,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,31 +3123,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,31 +3156,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,14 +3239,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3244,7 +3262,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3277,7 +3295,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3369,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>31</v>
@@ -3442,7 +3460,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3501,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3518,11 +3536,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3534,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3551,49 +3569,148 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q75" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>218</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>28</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>19</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>215</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>2433.5599999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>28</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>19</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>215</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>216</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>217</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>52</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>19</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>215</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>2564.1399999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>221</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>222</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>223</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3947,10 +4064,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>COLLAGICA FORTE BOTTLE</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>COLLOMAK TOP. SOUTION 10 ML</t>
   </si>
   <si>
@@ -239,13 +248,13 @@
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>21.00</t>
   </si>
   <si>
-    <t>4.2000</t>
+    <t>6.3000</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -581,9 +590,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -674,7 +680,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:21 PM</t>
+    <t>Sunday, 10 August, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1657,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1662,7 +1668,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1678,7 +1684,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1711,7 +1717,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1721,11 +1727,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1737,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1777,13 +1783,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1794,7 +1800,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1810,13 +1816,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1827,7 +1833,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1842,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,14 +1859,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,14 +1892,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,14 +1925,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1942,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,11 +1991,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -2008,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2041,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2107,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2206,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2249,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2272,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2338,7 +2344,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2355,7 +2361,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2371,7 +2377,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2388,7 +2394,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2404,7 +2410,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2421,7 +2427,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,7 +2443,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2454,7 +2460,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2503,7 +2509,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2569,7 +2575,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2602,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2616,10 +2622,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2668,7 +2674,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2707,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2718,7 +2724,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2734,7 +2740,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,31 +2766,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,24 +2806,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2833,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2998,7 +3004,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3015,7 +3021,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3031,7 +3037,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3080,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3130,7 +3136,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,7 +3146,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,31 +3195,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,10 +3381,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>31</v>
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3476,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3618,7 +3624,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3668,49 +3674,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>2564.1399999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>221</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>222</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>52</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>19</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>217</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>2591.2399999999998</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
         <v>223</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>224</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>225</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4079,10 +4118,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -650,6 +659,15 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -674,13 +692,22 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
+    <t>معجون حلاقه انجرام 60 جرام</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:28 PM</t>
+    <t>Sunday, 10 August, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2839,7 +2866,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2856,7 +2883,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2872,7 +2899,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,11 +2909,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,11 +3008,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,11 +3041,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3037,7 +3064,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3054,7 +3081,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3169,7 +3196,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,7 +3206,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,31 +3255,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3282,10 +3309,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3318,7 +3345,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3334,7 +3361,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,7 +3387,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>101</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,7 +3420,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3433,7 +3460,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,11 +3470,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>31</v>
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3503,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3565,7 +3592,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3579,7 +3606,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,14 +3635,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,7 +3668,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3707,7 +3734,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3718,38 +3745,137 @@
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>2591.2399999999998</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>83</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>19</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>228</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>230</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>28</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>19</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>223</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>224</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>225</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>52</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>19</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>223</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>2707.2399999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>232</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>233</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>234</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4123,10 +4249,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
-    <t>6:6</t>
+    <t>6:5</t>
   </si>
   <si>
     <t>0</t>
@@ -74,7 +74,10 @@
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
@@ -89,9 +92,6 @@
     <t>15.3600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -215,6 +215,27 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CORTILON 0.1 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
@@ -233,6 +254,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -410,273 +443,282 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>-41.5800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8418:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>56:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريد  مبيد الحشرات الزاحفه</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>-41.5800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8418:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">ريد  مبيد الحشرات الزاحفه</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -686,7 +728,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -707,7 +752,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:29 PM</t>
+    <t>Sunday, 10 August, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1398,7 +1443,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1407,14 +1452,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1424,14 +1469,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1810,7 +1855,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1820,14 +1865,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1836,28 +1881,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1869,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1886,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1909,24 +1954,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1935,14 +1980,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1952,11 +1997,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1968,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1985,14 +2030,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2008,7 +2053,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2018,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2034,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2051,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2084,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2100,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2133,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2154,10 +2199,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2166,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2183,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2216,14 +2261,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2232,14 +2277,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,14 +2327,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2315,14 +2360,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2331,14 +2376,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,14 +2393,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2364,14 +2409,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,11 +2426,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2397,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2414,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2430,14 +2475,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,11 +2492,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2463,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2496,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,14 +2558,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,14 +2574,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2591,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2562,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,11 +2624,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2595,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2657,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2673,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,14 +2690,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2668,7 +2713,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2723,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2739,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,14 +2756,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2727,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2744,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,14 +2855,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2826,31 +2871,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,7 +2904,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2876,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,7 +2937,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2909,14 +2954,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2925,31 +2970,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,11 +3053,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3024,14 +3069,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,11 +3086,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3057,14 +3102,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,11 +3119,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3090,14 +3135,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3168,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,14 +3251,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3222,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,14 +3284,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3300,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,20 +3333,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3309,10 +3354,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,31 +3366,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3361,24 +3406,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3432,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3420,14 +3465,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,14 +3482,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3453,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,14 +3515,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,11 +3548,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3519,14 +3564,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,14 +3581,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,14 +3614,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,7 +3630,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3602,11 +3647,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3618,14 +3663,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3635,14 +3680,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,14 +3696,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,11 +3713,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3684,14 +3729,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3701,14 +3746,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3717,14 +3762,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3734,11 +3779,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3750,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,14 +3812,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,14 +3828,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3800,11 +3845,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3816,14 +3861,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,49 +3878,181 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>241</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>28</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>19</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>237</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>2707.2399999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>232</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>233</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>234</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>242</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>94</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>19</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>243</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>245</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>28</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>19</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>237</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>52</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>19</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>237</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>2888.1799999999998</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>247</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>248</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>249</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4264,10 +4441,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -176,462 +176,459 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>COLLAGICA FORTE BOTTLE</t>
-  </si>
-  <si>
-    <t>250.00</t>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CORTILON 0.1 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>6.3000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLORAX 24 PIECES</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>-41.5800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8418:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>COLLOMAK TOP. SOUTION 10 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CORTILON 0.1 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>6.3000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLORAX 24 PIECES</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>-41.5800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8418:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -752,7 +749,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:36 PM</t>
+    <t>Sunday, 10 August, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1726,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1740,7 +1737,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1756,7 +1753,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1789,7 +1786,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,11 +1796,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1815,14 +1812,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1832,14 +1829,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1848,14 +1845,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1888,7 +1885,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1905,7 +1902,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1921,13 +1918,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1938,7 +1935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1954,21 +1951,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1980,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2004,7 +2001,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2010,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,14 +2027,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2046,14 +2043,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,14 +2060,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2079,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2096,14 +2093,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2119,7 +2116,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2129,14 +2126,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2145,14 +2142,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,11 +2159,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -2185,7 +2182,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2218,7 +2215,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2244,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2265,10 +2262,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2284,7 +2281,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2294,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2327,11 +2324,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2343,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2360,11 +2357,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2383,7 +2380,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2393,14 +2390,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2409,7 +2406,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2426,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2449,7 +2446,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2515,7 +2512,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2532,7 +2529,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2548,7 +2545,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2565,7 +2562,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2581,7 +2578,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2598,7 +2595,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2614,7 +2611,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2631,7 +2628,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2647,7 +2644,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2657,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2673,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2690,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2706,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2723,14 +2720,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2739,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2756,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2772,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2789,14 +2786,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2812,7 +2809,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2852,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2888,14 +2885,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,31 +2934,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2970,31 +2967,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3003,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,14 +3017,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3036,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,7 +3050,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3076,7 +3073,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3086,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3102,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3119,7 +3116,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3142,7 +3139,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3152,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3175,7 +3172,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3185,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3201,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3218,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3267,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3300,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3366,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,31 +3396,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3465,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3482,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3498,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3515,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3531,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,7 +3561,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3581,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3597,7 +3594,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3614,14 +3611,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3630,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3663,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3703,7 +3700,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3713,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3729,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3746,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3779,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3812,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3845,14 +3842,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3878,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3901,7 +3898,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3911,11 +3908,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>31</v>
@@ -3927,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3944,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -3967,7 +3964,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3977,82 +3974,49 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="A86" s="7">
-        <v>80</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c t="s" r="C86" s="8">
+      <c r="P86" s="13">
+        <v>2889.1799999999998</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
         <v>246</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c t="s" r="H86" s="9">
-        <v>52</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c t="s" r="L86" s="10">
-        <v>19</v>
-      </c>
-      <c r="M86" s="10"/>
-      <c t="s" r="N86" s="8">
-        <v>237</v>
-      </c>
-      <c r="O86" s="8"/>
-      <c t="s" r="P86" s="11">
-        <v>96</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>2888.1799999999998</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
         <v>247</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
         <v>248</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>249</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4456,15 +4420,10 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:41 PM</t>
+    <t>Sunday, 10 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:42 PM</t>
+    <t>Sunday, 10 August, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOZOVA FLEXETA 30 TAB</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>95.7000</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -2116,24 +2125,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2142,7 +2151,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2159,11 +2168,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -2182,7 +2191,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2215,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2262,10 +2271,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2281,7 +2290,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2298,7 +2307,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2324,11 +2333,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2380,7 +2389,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,7 +2415,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2446,7 +2455,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2512,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2562,7 +2571,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2595,7 +2604,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2611,7 +2620,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2628,7 +2637,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2785,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2790,10 +2799,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2892,7 +2901,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2908,7 +2917,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,31 +2943,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2974,24 +2983,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3007,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3024,7 +3033,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3040,7 +3049,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,11 +3059,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3205,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3222,7 +3231,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3290,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,7 +3356,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,31 +3405,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,11 +3455,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3519,7 +3528,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3535,7 +3544,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,7 +3570,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>147</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,10 +3624,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3667,7 +3676,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3865,7 +3874,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3917,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>31</v>
@@ -3931,7 +3940,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,7 +3983,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -3985,38 +3994,71 @@
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>2889.1799999999998</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>246</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>247</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>248</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>52</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>19</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>239</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>2984.8800000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>249</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>250</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>251</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4420,10 +4462,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -596,6 +596,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 50MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -758,7 +767,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:47 PM</t>
+    <t>Sunday, 10 August, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3355,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3363,7 +3372,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,7 +3398,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,31 +3447,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3561,7 +3570,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,7 +3612,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,10 +3666,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3709,7 +3718,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,7 +3916,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3950,11 +3959,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -3973,7 +3982,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>31</v>
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4016,7 +4025,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4027,38 +4036,71 @@
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>2984.8800000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>249</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>250</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>251</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>52</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>19</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>242</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3131.8800000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>252</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>253</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>254</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4467,10 +4509,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>84.00</t>
   </si>
   <si>
-    <t>27.7200</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
@@ -422,6 +422,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -566,6 +575,12 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -611,9 +626,6 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -767,7 +779,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 7:49 PM</t>
+    <t>Sunday, 10 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2563,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2580,7 +2592,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,7 +2641,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2646,7 +2658,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2662,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2679,7 +2691,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2695,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2841,10 +2853,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2893,7 +2905,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2926,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2943,7 +2955,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2959,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,31 +2997,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3025,24 +3037,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3058,7 +3070,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3091,7 +3103,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3256,7 +3268,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3344,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,31 +3492,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,31 +3525,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,11 +3608,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,7 +3690,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3773,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3784,7 +3796,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,11 +3839,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,11 +3905,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3916,7 +3928,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,7 +3971,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3982,7 +3994,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4025,7 +4037,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4048,7 +4060,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,49 +4070,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3131.8800000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>252</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>253</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>254</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>28</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>19</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>246</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>52</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>19</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>246</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3373.1599999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>256</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>257</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>258</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4514,10 +4592,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -332,6 +332,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -560,13 +566,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:19</t>
+    <t>0:18</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
@@ -779,7 +785,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:05 PM</t>
+    <t>Sunday, 10 August, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2278,7 +2284,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2327,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,7 +2376,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2469,7 +2475,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2552,11 +2558,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2773,7 +2779,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2905,7 +2911,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,31 +3036,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,31 +3069,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,7 +3152,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3169,7 +3175,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3235,7 +3241,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3268,7 +3274,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3301,7 +3307,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3350,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,11 +3416,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3426,7 +3432,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3443,11 +3449,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3499,7 +3505,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,11 +3515,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,31 +3564,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>153</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3713,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,7 +3762,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3796,7 +3802,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3810,7 +3816,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3895,7 +3901,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,11 +3911,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3921,7 +3927,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3938,14 +3944,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>153</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3961,7 +3967,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3977,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3994,7 +4000,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4043,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>31</v>
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>31</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,7 +4142,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4147,38 +4153,71 @@
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3373.1599999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>256</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>257</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>52</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>19</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>248</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3449.21</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>258</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>259</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>260</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4602,10 +4641,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -527,6 +527,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>NOSTIFIX 0.5MG 2 TABLETS</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -782,10 +797,19 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:07 PM</t>
+    <t>Sunday, 10 August, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,31 +3093,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3109,24 +3133,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3142,7 +3166,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3159,7 +3183,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,7 +3199,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3373,7 +3397,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,11 +3473,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3465,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3498,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3538,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3571,7 +3595,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,31 +3621,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,31 +3654,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,11 +3737,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>31</v>
@@ -3729,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3746,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>87</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3769,7 +3793,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3786,7 +3810,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3835,7 +3859,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3852,7 +3876,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3868,7 +3892,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3878,11 +3902,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3911,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3944,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>31</v>
@@ -3967,7 +3991,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3977,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4000,7 +4024,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4014,7 +4038,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>31</v>
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4066,7 +4090,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4076,7 +4100,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4109,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,7 +4149,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4142,7 +4166,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4175,49 +4199,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>28</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>19</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>253</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3449.21</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>258</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>259</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>260</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>246</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>19</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>263</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>52</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>19</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>253</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>3632.21</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>266</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>267</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>268</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4769,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -296,10 +296,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>127.6800</t>
   </si>
   <si>
     <t>DOZOVA FLEXETA 30 TAB</t>
@@ -539,15 +539,6 @@
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -809,7 +800,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:08 PM</t>
+    <t>Sunday, 10 August, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2160,7 +2151,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -3133,24 +3124,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3166,7 +3157,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3183,7 +3174,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3199,7 +3190,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3225,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3430,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3447,7 +3438,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3473,11 +3464,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3489,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3522,7 +3513,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3539,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3562,7 +3553,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3576,10 +3567,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3638,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,31 +3645,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,11 +3695,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3720,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3744,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3777,7 +3768,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3793,7 +3784,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,14 +3794,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,7 +3810,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3836,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>87</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,10 +3864,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3925,7 +3916,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3951,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3984,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +3992,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -4034,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,14 +4091,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4123,7 +4114,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,14 +4124,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,14 +4140,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,11 +4157,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>31</v>
@@ -4189,7 +4180,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,11 +4190,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>31</v>
@@ -4215,14 +4206,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4223,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>31</v>
@@ -4255,7 +4246,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,82 +4256,49 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>3647.21</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
         <v>264</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="A93" s="7">
-        <v>87</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c t="s" r="C93" s="8">
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
         <v>265</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c t="s" r="H93" s="9">
-        <v>52</v>
-      </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c t="s" r="L93" s="10">
-        <v>19</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c t="s" r="N93" s="8">
-        <v>253</v>
-      </c>
-      <c r="O93" s="8"/>
-      <c t="s" r="P93" s="11">
-        <v>93</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>3632.21</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>266</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>267</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>268</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4779,15 +4737,10 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:13 PM</t>
+    <t>Sunday, 10 August, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -404,10 +404,13 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
@@ -476,9 +479,6 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>-41.5800</t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:15 PM</t>
+    <t>Sunday, 10 August, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2596,7 +2596,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>52</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2672,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2705,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>91</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,11 +2837,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2853,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3636,7 +3636,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,7 +3735,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,7 +3834,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,7 +4032,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4268,7 +4268,7 @@
     </row>
     <row r="93" ht="24.75" customHeight="1">
       <c r="P93" s="13">
-        <v>3647.21</v>
+        <v>3669.21</v>
       </c>
       <c r="Q93" s="13"/>
     </row>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:16 PM</t>
+    <t>Sunday, 10 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3058,7 +3058,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3355,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -4213,7 +4213,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -449,6 +449,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -800,7 +806,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:22 PM</t>
+    <t>Sunday, 10 August, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2794,7 +2800,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2926,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2940,10 +2946,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2992,7 +2998,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3031,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3042,7 +3048,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,7 +3064,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,7 +3206,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3223,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3289,7 +3295,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3322,7 +3328,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3355,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,7 +3453,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3530,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3586,7 +3592,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,31 +3651,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3827,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3860,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3883,7 +3889,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3897,7 +3903,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3982,7 +3988,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -4008,7 +4014,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4025,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4048,7 +4054,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4081,7 +4087,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>31</v>
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>31</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>31</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,49 +4262,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>264</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>52</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>19</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>252</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>3669.21</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>264</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c t="s" r="Q93" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>3777.21</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>265</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>266</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>267</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4776,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -269,6 +284,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
@@ -284,9 +308,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -341,13 +362,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>0:6</t>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -359,6 +377,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FLORAX 24 PIECES</t>
   </si>
   <si>
@@ -527,6 +557,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -560,9 +599,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -581,6 +617,9 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -624,6 +663,9 @@
   </si>
   <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -1486,18 +1528,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1506,20 +1548,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1530,7 +1572,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1539,14 +1581,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1556,14 +1598,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1579,7 +1621,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1589,14 +1631,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1605,14 +1647,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1622,11 +1664,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1638,14 +1680,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1655,11 +1697,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1671,14 +1713,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1688,14 +1730,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1704,14 +1746,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1721,14 +1763,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1737,14 +1779,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1754,14 +1796,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1770,14 +1812,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1787,14 +1829,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1803,14 +1845,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1820,14 +1862,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1836,14 +1878,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1853,14 +1895,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1869,14 +1911,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1886,14 +1928,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1902,14 +1944,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1919,11 +1961,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1935,14 +1977,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1952,14 +1994,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1968,31 +2010,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2001,28 +2043,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2034,14 +2076,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,14 +2093,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2067,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2091,7 +2133,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,14 +2142,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2124,7 +2166,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2150,14 +2192,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2166,28 +2208,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2199,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2216,14 +2258,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2232,31 +2274,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2265,14 +2307,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2282,14 +2324,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2298,14 +2340,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2331,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,14 +2390,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2381,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2404,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2456,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2437,7 +2479,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2463,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,11 +2522,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2496,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,14 +2571,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,14 +2588,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2562,14 +2604,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2621,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2635,7 +2677,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2652,7 +2694,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2668,7 +2710,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2685,7 +2727,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2743,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,14 +2753,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2727,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,14 +2786,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2819,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2918,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,14 +2967,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2965,7 +3007,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3050,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,14 +3083,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3182,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3248,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3222,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3314,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3354,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3446,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3453,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3512,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3545,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,7 +3627,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3602,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3618,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,24 +3733,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,31 +3759,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,31 +3792,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,31 +3825,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,31 +3858,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,31 +3891,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,31 +3924,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,31 +3957,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,31 +3990,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3988,24 +4030,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,31 +4056,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4054,24 +4096,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,31 +4122,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,31 +4155,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,31 +4188,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,31 +4221,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4219,24 +4261,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,31 +4287,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,66 +4320,264 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>24</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>19</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>33</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>24</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>266</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>21</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>24</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>272</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>33</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>24</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>266</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>275</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>259</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>24</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>276</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
         <v>93</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>3777.21</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>265</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>278</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>57</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>24</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>266</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>267</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>3958.9499999999998</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>279</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>280</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>281</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4781,10 +5021,40 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -848,7 +848,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:23 PM</t>
+    <t>Sunday, 10 August, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -806,6 +806,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -848,7 +851,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:25 PM</t>
+    <t>Sunday, 10 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4327,7 +4330,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,11 +4340,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>36</v>
@@ -4353,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4406,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4426,7 +4429,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>36</v>
@@ -4452,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>36</v>
@@ -4492,7 +4495,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>36</v>
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,49 +4538,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>57</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>24</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>267</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>100</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>3958.9499999999998</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>279</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c t="s" r="Q100" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>3986.9499999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
         <v>280</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
         <v>281</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>282</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5051,10 +5087,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
@@ -851,7 +860,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:27 PM</t>
+    <t>Sunday, 10 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1641,7 +1650,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2020,7 +2029,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2053,13 +2062,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2070,7 +2079,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2086,21 +2095,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2284,24 +2293,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2317,24 +2326,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,7 +2352,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2383,7 +2392,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2430,10 +2439,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2647,7 +2656,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,7 +2739,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2895,7 +2904,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3123,10 +3132,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3175,7 +3184,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3208,7 +3217,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3225,7 +3234,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3241,7 +3250,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3373,7 +3382,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3387,10 +3396,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,11 +3524,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3670,7 +3679,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3687,7 +3696,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3835,7 +3844,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3849,10 +3858,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,11 +3887,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,31 +3936,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4050,7 +4059,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4066,7 +4075,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4132,7 +4141,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4146,10 +4155,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4198,7 +4207,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,7 +4306,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4495,7 +4504,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4561,7 +4570,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,49 +4580,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>3986.9499999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>280</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>281</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>282</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>60</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>24</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>270</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4296.9499999999998</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>283</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>284</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>285</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5092,10 +5134,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
   </si>
   <si>
@@ -350,249 +359,255 @@
     <t>52.00</t>
   </si>
   <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLORAX 24 PIECES</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>-41.5800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NOSTIFIX 0.5MG 2 TABLETS</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
     <t>52.0000</t>
   </si>
   <si>
-    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLORAX 24 PIECES</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>-41.5800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NOSTIFIX 0.5MG 2 TABLETS</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -653,6 +668,12 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>TOPZAD SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -662,6 +683,12 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -848,6 +875,9 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -860,7 +890,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:33 PM</t>
+    <t>Sunday, 10 August, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,13 +2092,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2079,7 +2109,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2095,13 +2125,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2112,7 +2142,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2128,21 +2158,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2178,7 +2208,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2227,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2277,7 +2307,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2293,7 +2323,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2326,24 +2356,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2359,24 +2389,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2385,7 +2415,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2402,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2425,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2442,7 +2472,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2458,7 +2488,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2472,10 +2502,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2524,7 +2554,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2557,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2633,11 +2663,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2689,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2715,7 +2745,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2732,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>33</v>
@@ -2755,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2788,7 +2818,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2838,7 +2868,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2854,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2871,7 +2901,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2887,7 +2917,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2904,7 +2934,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2920,7 +2950,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2937,7 +2967,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2953,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2970,7 +3000,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3019,7 +3049,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,7 +3059,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3052,7 +3082,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>173</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3128,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,11 +3224,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3210,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,11 +3257,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -3243,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,11 +3290,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3276,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3382,7 +3412,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3448,7 +3478,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3495,10 +3525,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3547,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3660,7 +3690,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3672,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3712,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>33</v>
@@ -3738,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>33</v>
@@ -3778,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,7 +3834,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3821,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>33</v>
@@ -3870,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3943,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,28 +3999,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4002,31 +4032,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,31 +4065,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>33</v>
@@ -4233,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4273,7 +4303,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4316,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4339,7 +4369,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4412,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>33</v>
@@ -4398,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,11 +4445,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>33</v>
@@ -4431,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4497,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4537,7 +4567,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4563,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4596,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,49 +4643,214 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4296.9499999999998</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>283</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>284</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>21</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>24</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>285</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>37</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>24</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>279</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>33</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>24</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>250</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>271</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>24</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>290</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>60</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>24</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>279</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>4563.6999999999998</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>294</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>295</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5139,10 +5334,35 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DEETRIO 30TAB</t>
   </si>
   <si>
@@ -602,6 +611,9 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -791,9 +803,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -890,7 +899,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:44 PM</t>
+    <t>Sunday, 10 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2092,13 +2101,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2109,7 +2118,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2125,13 +2134,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2142,7 +2151,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2158,13 +2167,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2175,7 +2184,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2191,21 +2200,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2290,7 +2299,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2389,24 +2398,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2422,24 +2431,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2505,7 +2514,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2535,10 +2544,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2752,7 +2761,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,7 +2787,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2818,7 +2827,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2851,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2910,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2934,7 +2943,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2967,7 +2976,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,7 +2992,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3000,7 +3009,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3033,7 +3042,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3092,7 +3101,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3115,7 +3124,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3214,7 +3223,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,10 +3270,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3322,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3363,7 +3372,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>33</v>
@@ -3504,7 +3513,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3709,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3775,7 +3784,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3940,7 +3949,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>33</v>
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>33</v>
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4039,7 +4048,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,31 +4140,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4173,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>33</v>
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,7 +4338,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,11 +4421,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>33</v>
@@ -4428,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,11 +4454,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>33</v>
@@ -4468,7 +4477,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>33</v>
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,7 +4536,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4567,7 +4576,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4600,7 +4609,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,14 +4619,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,7 +4701,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4709,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>33</v>
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>33</v>
@@ -4758,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4791,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,49 +4817,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4563.6999999999998</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>274</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>24</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>293</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>294</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c t="s" r="Q107" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>295</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>60</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>24</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>282</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>4654.6999999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5359,10 +5434,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>138.00</t>
   </si>
   <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -521,6 +530,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -617,9 +632,6 @@
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -899,7 +911,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:45 PM</t>
+    <t>Sunday, 10 August, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2596,7 +2608,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2629,7 +2641,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2662,7 +2674,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,11 +2750,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,11 +2783,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2794,7 +2806,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2820,7 +2832,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2837,11 +2849,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2860,7 +2872,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2893,7 +2905,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2943,7 +2955,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2959,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,7 +2988,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3009,7 +3021,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3025,7 +3037,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3042,7 +3054,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3058,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3117,7 +3129,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3157,7 +3169,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,11 +3179,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3207,7 +3219,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3223,7 +3235,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3322,7 +3334,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,7 +3344,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3355,7 +3367,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3369,7 +3381,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,11 +3410,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3454,7 +3466,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3471,7 +3483,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3487,7 +3499,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,7 +3525,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3575,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>33</v>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3652,7 +3664,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3707,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3784,7 +3796,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,7 +3839,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3850,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3895,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4015,7 +4027,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4041,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,11 +4070,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4074,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,11 +4103,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4114,7 +4126,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,31 +4218,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,31 +4251,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4338,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>249</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4378,7 +4390,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4395,7 +4407,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4421,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4499,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>33</v>
@@ -4510,7 +4522,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,11 +4532,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>33</v>
@@ -4536,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4565,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4569,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,7 +4614,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4619,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>33</v>
@@ -4635,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,7 +4730,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4741,7 +4753,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,14 +4763,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4784,7 +4796,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4807,7 +4819,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>33</v>
@@ -4833,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,11 +4862,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>33</v>
@@ -4873,7 +4885,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4883,49 +4895,115 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>296</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>278</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>24</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>297</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>60</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>24</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>286</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>4654.6999999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>297</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>298</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>4759.6999999999998</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>300</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>301</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>302</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5522,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -536,6 +536,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -911,7 +917,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:48 PM</t>
+    <t>Sunday, 10 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3208,15 +3214,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>185</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3400,7 +3406,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,7 +3515,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3532,7 +3538,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>33</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3697,7 +3703,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3730,7 +3736,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3829,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3862,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3895,7 +3901,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -3961,7 +3967,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3975,10 +3981,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4027,7 +4033,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,7 +4059,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,11 +4142,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4152,7 +4158,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4169,11 +4175,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>33</v>
@@ -4185,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4225,7 +4231,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,31 +4290,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,11 +4340,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4350,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4406,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>253</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4466,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>153</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,7 +4528,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4536,7 +4542,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>33</v>
@@ -4548,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4621,7 +4627,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>33</v>
@@ -4647,7 +4653,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4713,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,11 +4736,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>33</v>
@@ -4753,7 +4759,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,14 +4769,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,14 +4802,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>33</v>
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>33</v>
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -4911,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -4944,14 +4950,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,49 +4967,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>60</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>24</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>288</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>4759.6999999999998</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>300</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>301</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c t="s" r="Q111" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>4881.6999999999998</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>302</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5532,10 +5571,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -554,6 +554,9 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -884,9 +887,6 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -917,7 +917,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 8:49 PM</t>
+    <t>Sunday, 10 August, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3274,7 +3274,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3288,10 +3288,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,11 +3317,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3354,10 +3354,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>33</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>33</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3762,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>33</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4010,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4208,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4257,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4290,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>153</v>
@@ -4323,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>33</v>
@@ -4356,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4389,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>153</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4439,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>33</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4505,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>153</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4554,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4620,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4670,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4703,11 +4703,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>153</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4752,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4785,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -4957,7 +4957,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5012,7 +5012,7 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>4881.6999999999998</v>
+        <v>4917.6999999999998</v>
       </c>
       <c r="Q112" s="13"/>
     </row>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -821,6 +821,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -917,7 +920,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:11 PM</t>
+    <t>Sunday, 10 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4462,7 +4465,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>256</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4505,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,7 +4524,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4538,14 +4541,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>33</v>
@@ -4587,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>33</v>
@@ -4627,7 +4630,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4653,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4686,7 +4689,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4703,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,7 +4722,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4736,14 +4739,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4759,7 +4762,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>33</v>
@@ -4785,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,14 +4838,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4858,7 +4861,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>33</v>
@@ -4884,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4904,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -4924,7 +4927,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4937,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -4957,7 +4960,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,11 +4970,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>33</v>
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,49 +5003,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>302</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>60</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>24</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>290</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>4917.6999999999998</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>302</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c t="s" r="Q112" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>4944.6999999999998</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>303</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>304</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>305</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5612,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -467,6 +485,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -506,6 +533,9 @@
     <t>248.0000</t>
   </si>
   <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -668,9 +698,6 @@
     <t>0:18</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>14.1000</t>
   </si>
   <si>
@@ -680,9 +707,6 @@
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>46.5300</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -740,12 +764,18 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
   </si>
   <si>
-    <t>147.00</t>
-  </si>
-  <si>
     <t>147.0000</t>
   </si>
   <si>
@@ -920,7 +950,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:23 PM</t>
+    <t>Sunday, 10 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2122,7 +2152,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2139,7 +2169,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2155,13 +2185,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2172,7 +2202,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2188,13 +2218,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2205,7 +2235,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2221,13 +2251,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2238,7 +2268,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2254,21 +2284,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2304,7 +2334,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2353,7 +2383,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2403,7 +2433,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2419,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2452,13 +2482,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2485,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2511,31 +2541,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2584,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2598,10 +2628,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2660,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2683,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2700,7 +2730,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,11 +2822,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2825,11 +2855,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2888,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>33</v>
@@ -2947,7 +2977,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3079,7 +3109,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3096,7 +3126,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3145,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3171,7 +3201,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3188,11 +3218,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -3211,24 +3241,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3237,7 +3267,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -3270,14 +3300,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,31 +3366,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,11 +3548,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,11 +3647,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>33</v>
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,7 +3696,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3683,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,7 +3729,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3716,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,11 +3878,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,11 +3944,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3930,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,7 +3993,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3980,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4003,7 +4033,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,11 +4109,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>33</v>
@@ -4095,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>33</v>
@@ -4128,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,7 +4191,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4178,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,11 +4241,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4227,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,31 +4356,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,28 +4389,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>33</v>
@@ -4392,31 +4422,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,31 +4455,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,31 +4488,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>256</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4597,7 +4627,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4630,7 +4660,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,11 +4670,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>33</v>
@@ -4663,7 +4693,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,7 +4719,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4706,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,7 +4752,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4739,14 +4769,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>33</v>
@@ -4788,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>67</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>33</v>
@@ -4838,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4861,7 +4891,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>33</v>
@@ -4887,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>64</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>33</v>
@@ -4953,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +5000,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>33</v>
@@ -4986,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5003,14 +5033,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5019,14 +5049,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,49 +5066,214 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>304</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>21</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>24</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>305</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>307</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>37</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>24</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>300</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
         <v>109</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>4944.6999999999998</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>303</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>304</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>305</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>308</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>33</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>24</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>271</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>309</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>292</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>24</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>310</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>60</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>24</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>300</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5178.8100000000004</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>313</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>314</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>315</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5617,10 +5812,35 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIKACIN SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>BEBELAC 1 MILK 400 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>310.00</t>
   </si>
   <si>
@@ -251,6 +260,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>DAKY WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>DANTRELAX 25MG 30 CAPS.</t>
   </si>
   <si>
@@ -410,9 +428,6 @@
     <t>106.00</t>
   </si>
   <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -623,6 +638,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>LEYLAC SPF 50+FLUID</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -950,7 +974,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:25 PM</t>
+    <t>Sunday, 10 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,18 +1687,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1683,31 +1707,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1740,7 +1764,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1756,7 +1780,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1766,14 +1790,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1806,7 +1830,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1822,7 +1846,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1832,11 +1856,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1865,11 +1889,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2004,7 +2028,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2020,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2037,7 +2061,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2053,7 +2077,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2120,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2112,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2185,7 +2209,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2202,7 +2226,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2218,13 +2242,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2251,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2268,7 +2292,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2284,13 +2308,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2317,7 +2341,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2343,31 +2367,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2376,14 +2400,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2409,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2499,7 +2523,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2515,7 +2539,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2525,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2548,13 +2572,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2581,7 +2605,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,31 +2631,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2680,7 +2704,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2694,10 +2718,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2780,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2793,10 +2817,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2829,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,11 +2912,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2904,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2945,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +2994,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,14 +3011,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,11 +3110,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3168,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3242,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3308,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3340,7 +3364,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,31 +3390,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3439,17 +3463,17 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3472,7 +3496,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3581,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3604,7 +3628,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,7 +3638,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3637,7 +3661,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3651,10 +3675,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,31 +3687,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,7 +3737,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3736,7 +3760,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3753,7 +3777,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4264,7 +4288,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4298,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4488,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,31 +4545,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,31 +4578,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,31 +4611,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,31 +4644,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,31 +4677,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4693,24 +4717,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>266</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,31 +4743,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,31 +4776,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,31 +4809,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4825,24 +4849,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,31 +4875,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,31 +4908,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,31 +4974,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,31 +5007,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,31 +5040,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,31 +5073,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,31 +5106,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5115,31 +5139,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5148,31 +5172,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5181,31 +5205,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5214,66 +5238,165 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
         <v>112</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5178.8100000000004</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>313</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>314</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>315</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>21</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>28</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>279</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>317</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>300</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>28</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>318</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>63</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>28</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>308</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5810.8100000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>321</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>322</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>323</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5837,10 +5960,25 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -551,6 +560,15 @@
     <t>HEALSEC 20MG 14 CAPS</t>
   </si>
   <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -603,9 +621,6 @@
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:2</t>
   </si>
   <si>
     <t>60.00</t>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1773,14 +1788,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1797,7 +1812,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1813,7 +1828,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1823,11 +1838,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1863,7 +1878,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1879,7 +1894,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1889,11 +1904,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1922,11 +1937,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2021,11 +2036,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2077,7 +2092,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2110,7 +2125,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2209,7 +2224,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2226,7 +2241,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2259,7 +2274,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2275,7 +2290,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2292,7 +2307,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2308,13 +2323,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2325,7 +2340,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2341,13 +2356,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2358,7 +2373,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2374,13 +2389,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2391,7 +2406,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2407,21 +2422,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2457,7 +2472,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2506,7 +2521,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2556,7 +2571,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2605,7 +2620,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2630,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2638,24 +2653,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2671,24 +2686,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2754,7 +2769,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2770,7 +2785,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2784,10 +2799,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,7 +2811,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2869,7 +2884,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2902,7 +2917,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,11 +2993,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3034,7 +3049,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,7 +3075,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3077,11 +3092,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3100,7 +3115,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3133,7 +3148,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3150,7 +3165,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,7 +3181,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3216,7 +3231,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3232,7 +3247,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3249,7 +3264,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3282,7 +3297,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3298,7 +3313,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3364,7 +3379,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3397,7 +3412,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3456,28 +3471,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,11 +3521,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3522,31 +3537,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3579,7 +3594,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3694,13 +3709,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3711,7 +3726,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3727,7 +3742,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,28 +3768,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3859,7 +3874,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3876,7 +3891,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3892,7 +3907,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,11 +3983,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4024,7 +4039,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4090,7 +4105,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4236,7 +4251,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4321,7 +4336,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4354,7 +4369,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4371,7 +4386,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4387,7 +4402,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,11 +4445,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,11 +4478,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,11 +4544,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4552,7 +4567,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4566,7 +4581,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4618,7 +4633,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,31 +4659,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,31 +4692,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4775,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4915,7 +4930,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4932,7 +4947,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4948,7 +4963,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5006,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5047,7 +5062,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5072,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5080,7 +5095,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5105,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,14 +5138,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5270,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5303,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5336,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5337,14 +5352,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,49 +5369,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5810.8100000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>322</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>305</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>28</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>323</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>325</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>66</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>28</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>313</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5886.4499999999998</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>326</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>327</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>328</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6056,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -578,6 +578,12 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>ITRANOX 100MG 15 CAPS.</t>
   </si>
   <si>
@@ -602,9 +608,6 @@
     <t>KATIVAROX SYRUP</t>
   </si>
   <si>
-    <t>122.0000</t>
-  </si>
-  <si>
     <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
   </si>
   <si>
@@ -710,6 +713,12 @@
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -764,6 +773,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
     <t>TOPZAD SOAP 80 GM</t>
   </si>
   <si>
@@ -902,9 +914,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -989,7 +998,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:26 PM</t>
+    <t>Sunday, 10 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3445,7 +3454,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3471,7 +3480,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3488,7 +3497,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3521,7 +3530,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3550,11 +3559,11 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3583,15 +3592,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3768,28 +3777,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3801,31 +3810,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4006,7 +4015,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4039,7 +4048,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4218,10 +4227,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4270,7 +4279,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,11 +4322,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4416,10 +4425,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4428,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4527,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4593,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4610,11 +4619,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4626,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,11 +4685,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,14 +4718,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4725,31 +4734,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4758,31 +4767,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,28 +4800,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>170</v>
@@ -4824,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,11 +4850,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4857,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4874,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4890,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>279</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4940,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,11 +4982,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4989,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5055,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5088,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5121,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,14 +5147,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5154,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>66</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5171,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5220,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>66</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,14 +5246,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5286,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,11 +5312,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5319,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5336,14 +5345,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5352,14 +5361,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5369,11 +5378,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5385,14 +5394,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5402,11 +5411,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5418,14 +5427,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5435,7 +5444,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5446,38 +5455,137 @@
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5886.4499999999998</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>21</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>28</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>288</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>308</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>28</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>326</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>327</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>328</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>66</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>28</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>316</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6068.4499999999998</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>329</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>330</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>331</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6066,10 +6174,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALTIAZEM 60MG 40 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>AMIKACIN SPRAY 100 ML</t>
   </si>
   <si>
@@ -173,9 +185,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>104.0000</t>
+    <t>156.0000</t>
   </si>
   <si>
     <t>E-MOX 250MG/5ML SUSP. 80ML</t>
@@ -440,10 +449,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>35.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -464,9 +476,6 @@
     <t>34.00</t>
   </si>
   <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>FLORAX 24 PIECES</t>
   </si>
   <si>
@@ -701,9 +710,6 @@
     <t>NOSTIFIX 0.5MG 2 TABLETS</t>
   </si>
   <si>
-    <t>68.00</t>
-  </si>
-  <si>
     <t>68.0000</t>
   </si>
   <si>
@@ -719,6 +725,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -998,7 +1007,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:30 PM</t>
+    <t>Sunday, 10 August, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1689,7 +1698,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1744,18 +1753,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1764,31 +1773,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1837,7 +1846,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1887,7 +1896,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2002,7 +2011,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2118,7 +2127,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2266,7 +2275,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2349,7 +2358,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2365,13 +2374,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2382,7 +2391,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2398,13 +2407,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2415,7 +2424,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2431,13 +2440,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2448,7 +2457,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2464,21 +2473,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2662,7 +2671,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2695,24 +2704,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2728,24 +2737,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2811,7 +2820,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2827,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2841,10 +2850,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,7 +2862,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2976,7 +2985,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3035,11 +3044,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,11 +3077,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3091,7 +3100,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3157,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3174,7 +3183,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3207,7 +3216,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3223,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3273,7 +3282,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3306,7 +3315,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3331,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3339,7 +3348,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3355,7 +3364,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3421,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3438,7 +3447,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3454,7 +3463,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3520,7 +3529,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,31 +3588,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,31 +3621,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3652,7 +3661,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3718,7 +3727,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3784,7 +3793,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3798,10 +3807,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,31 +3819,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3850,24 +3859,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,7 +3925,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3933,7 +3942,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,11 +3968,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4015,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4131,7 +4140,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4161,10 +4170,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4246,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4510,7 +4519,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4576,7 +4585,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4708,7 +4717,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,11 +4793,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,31 +4842,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,31 +4875,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,31 +4908,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,20 +4941,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4956,7 +4965,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4972,24 +4981,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5007,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>283</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,31 +5040,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>116</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,31 +5073,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,31 +5106,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5137,24 +5146,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,31 +5172,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,31 +5205,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5236,24 +5245,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,31 +5271,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,31 +5304,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,31 +5337,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5361,31 +5370,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5394,31 +5403,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5434,24 +5443,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5460,31 +5469,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5493,31 +5502,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5533,59 +5542,92 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>121</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6068.4499999999998</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>329</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>330</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>331</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>69</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>32</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>319</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6164.29</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>332</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>333</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>334</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6189,10 +6231,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -740,9 +749,6 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -833,6 +845,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
   </si>
   <si>
@@ -1007,7 +1028,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:43 PM</t>
+    <t>Sunday, 10 August, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2869,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2883,10 +2904,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2895,7 +2916,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2912,11 +2933,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3001,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3034,7 +3055,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3077,11 +3098,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,11 +3131,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3133,7 +3154,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,7 +3180,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3176,11 +3197,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3199,7 +3220,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3232,7 +3253,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3249,7 +3270,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3265,7 +3286,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3315,7 +3336,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3331,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3348,7 +3369,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3364,7 +3385,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3381,7 +3402,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3397,7 +3418,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3463,7 +3484,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3480,7 +3501,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3496,7 +3517,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3506,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,7 +3560,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3572,11 +3593,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3588,7 +3609,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3621,7 +3642,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3634,15 +3655,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3654,7 +3675,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3667,15 +3688,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3694,7 +3715,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3760,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>212</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3793,7 +3814,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3826,7 +3847,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3840,10 +3861,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,28 +3873,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3892,24 +3913,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3925,7 +3946,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3958,7 +3979,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3975,7 +3996,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3991,7 +4012,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,11 +4022,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4156,7 +4177,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4173,7 +4194,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4189,7 +4210,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4203,10 +4224,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,11 +4253,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4255,7 +4276,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4281,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4347,28 +4368,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4420,7 +4441,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,7 +4451,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4453,7 +4474,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,7 +4500,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4496,11 +4517,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4651,7 +4672,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4677,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,11 +4715,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4710,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4760,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,11 +4814,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4816,7 +4837,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,7 +4847,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4849,7 +4870,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,14 +4880,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,31 +4896,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,31 +4929,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,31 +4962,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -5007,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5040,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,14 +5078,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5106,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5144,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5139,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5179,7 +5200,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,14 +5210,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5238,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5271,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5309,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,7 +5332,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5337,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,11 +5375,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5370,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5408,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,11 +5441,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>25</v>
@@ -5436,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,11 +5474,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5469,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,14 +5507,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5502,14 +5523,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5519,11 +5540,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5535,14 +5556,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5552,11 +5573,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5568,14 +5589,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5585,7 +5606,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5596,38 +5617,137 @@
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6164.29</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>332</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>333</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>334</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>25</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>32</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>298</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>318</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>32</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>336</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>338</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>69</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>32</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>326</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6409</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>339</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>340</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>341</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6236,10 +6356,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -767,12 +767,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -845,15 +839,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
   </si>
   <si>
@@ -1028,7 +1013,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:47 PM</t>
+    <t>Sunday, 10 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4381,18 +4366,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4441,7 +4426,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4474,7 +4459,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4517,11 +4502,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4533,7 +4518,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4550,11 +4535,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4573,7 +4558,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4587,10 +4572,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4639,7 +4624,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,7 +4650,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4682,11 +4667,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4698,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4731,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4764,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,14 +4766,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4797,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,7 +4836,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4863,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4903,7 +4888,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,31 +4914,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,31 +4947,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5030,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5061,14 +5046,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,7 +5145,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5177,14 +5162,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>293</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5233,7 +5218,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5259,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5292,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5332,7 +5317,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5375,11 +5360,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5391,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5424,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,14 +5426,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5457,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,7 +5459,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5490,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,14 +5492,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>28</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5523,7 +5508,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5540,7 +5525,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5556,14 +5541,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,11 +5558,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5589,14 +5574,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5606,11 +5591,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5622,14 +5607,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5639,115 +5624,49 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="A128" s="7">
-        <v>122</v>
-      </c>
-      <c r="B128" s="7"/>
-      <c t="s" r="C128" s="8">
+      <c r="P128" s="13">
+        <v>6260.29</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>334</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
         <v>335</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c t="s" r="H128" s="9">
-        <v>318</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c t="s" r="L128" s="10">
-        <v>32</v>
-      </c>
-      <c r="M128" s="10"/>
-      <c t="s" r="N128" s="8">
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
         <v>336</v>
       </c>
-      <c r="O128" s="8"/>
-      <c t="s" r="P128" s="11">
-        <v>337</v>
-      </c>
-      <c t="s" r="Q128" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="A129" s="7">
-        <v>123</v>
-      </c>
-      <c r="B129" s="7"/>
-      <c t="s" r="C129" s="8">
-        <v>338</v>
-      </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c t="s" r="H129" s="9">
-        <v>69</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c t="s" r="L129" s="10">
-        <v>32</v>
-      </c>
-      <c r="M129" s="10"/>
-      <c t="s" r="N129" s="8">
-        <v>326</v>
-      </c>
-      <c r="O129" s="8"/>
-      <c t="s" r="P129" s="11">
-        <v>124</v>
-      </c>
-      <c t="s" r="Q129" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6409</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>339</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>340</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>341</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6361,20 +6280,10 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:M129"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -935,6 +935,18 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
@@ -1013,7 +1025,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:48 PM</t>
+    <t>Sunday, 10 August, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5185,7 +5197,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,11 +5207,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5277,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5310,7 +5322,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5343,7 +5355,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,14 +5438,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,11 +5504,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5508,14 +5520,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,11 +5537,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5541,14 +5553,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5558,11 +5570,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5591,11 +5603,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5624,49 +5636,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>337</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>69</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>32</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>325</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>124</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6260.29</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>334</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>335</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>336</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6272.29</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>338</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>339</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>340</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6280,10 +6325,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-10_00-00.xlsx
+++ b/DaySale_2025-08-10_00-00.xlsx
@@ -260,483 +260,480 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CORTILON 0.1 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>DAKY WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DEETRIO 30TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>6.3000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>DOZOVA FLEXETA 30 TAB</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>95.7000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>35.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>FLORAX 24 PIECES</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>-41.5800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LEYLAC SPF 50+FLUID</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NOSTIFIX 0.5MG 2 TABLETS</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CORTILON 0.1 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>DAKY WHITENING CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>DANTRELAX 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DEETRIO 30TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>DELAREX 0.05G/100ML SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>6.3000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>127.6800</t>
-  </si>
-  <si>
-    <t>DOZOVA FLEXETA 30 TAB</t>
-  </si>
-  <si>
-    <t>290.00</t>
-  </si>
-  <si>
-    <t>95.7000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 250MG/5ML SUSP. 80ML</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>35.5200</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>FLORAX 24 PIECES</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GELINOSE DELICATE MOISTURUZING GEL 20GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KAST 10MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>-41.5800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 1GM/5ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LEYLAC SPF 50+FLUID</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NOSTIFIX 0.5MG 2 TABLETS</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -872,6 +869,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -1025,7 +1031,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Sunday, 10 August, 2025 9:49 PM</t>
+    <t>Sunday, 10 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2260,7 +2266,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2270,14 +2276,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2286,7 +2292,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2319,7 +2325,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2352,7 +2358,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2369,11 +2375,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2385,7 +2391,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2402,11 +2408,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2418,7 +2424,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2451,7 +2457,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2484,7 +2490,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2501,11 +2507,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2534,11 +2540,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2550,7 +2556,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>114</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2583,7 +2589,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2600,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2649,7 +2655,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2666,11 +2672,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2682,7 +2688,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2699,11 +2705,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2736,10 +2742,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2748,7 +2754,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2781,7 +2787,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2814,7 +2820,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2847,7 +2853,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2864,11 +2870,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2880,7 +2886,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2897,11 +2903,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2930,7 +2936,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2946,7 +2952,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2963,7 +2969,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3000,10 +3006,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3012,7 +3018,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3029,11 +3035,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,7 +3068,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3078,7 +3084,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3095,11 +3101,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3111,7 +3117,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3128,11 +3134,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3144,7 +3150,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3161,11 +3167,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3177,7 +3183,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3210,7 +3216,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3227,11 +3233,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3243,7 +3249,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3276,7 +3282,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,11 +3332,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3342,7 +3348,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>69</v>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3392,11 +3398,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3408,7 +3414,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3425,11 +3431,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3441,7 +3447,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3540,7 +3546,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3573,7 +3579,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3606,7 +3612,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3639,7 +3645,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3672,7 +3678,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3693,7 +3699,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3705,7 +3711,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3755,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3771,7 +3777,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3788,11 +3794,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>176</v>
+        <